--- a/非受控文档/3_杨以恒/PRD2018-G03-任务评审表（20181105）.xlsx
+++ b/非受控文档/3_杨以恒/PRD2018-G03-任务评审表（20181105）.xlsx
@@ -425,91 +425,85 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -521,7 +515,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -832,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:S28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:H14"/>
+    <sheetView tabSelected="1" topLeftCell="I9" workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -846,193 +846,193 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="28"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="19"/>
       <c r="S2" s="3"/>
     </row>
     <row r="3" spans="2:19">
-      <c r="B3" s="29"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="30"/>
-      <c r="L3" s="30"/>
-      <c r="M3" s="30"/>
-      <c r="N3" s="30"/>
-      <c r="O3" s="30"/>
-      <c r="P3" s="30"/>
-      <c r="Q3" s="30"/>
-      <c r="R3" s="31"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="21"/>
+      <c r="K3" s="21"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="21"/>
+      <c r="P3" s="21"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="22"/>
       <c r="S3" s="3"/>
     </row>
     <row r="4" spans="2:19">
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="26" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="32" t="s">
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="20"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="41">
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="26">
         <v>43409</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="36" t="s">
+      <c r="M4" s="27"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="P4" s="16" t="s">
+      <c r="P4" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="Q4" s="36" t="s">
+      <c r="Q4" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="R4" s="32" t="s">
         <v>32</v>
       </c>
       <c r="S4" s="4"/>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="33"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="15"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="37"/>
-      <c r="R5" s="17"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="30"/>
+      <c r="N5" s="31"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="33"/>
       <c r="S5" s="4"/>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="21"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="42">
         <v>43407</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="32" t="s">
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="21"/>
-      <c r="L6" s="41">
+      <c r="K6" s="11"/>
+      <c r="L6" s="26">
         <v>43408</v>
       </c>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="12"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="28"/>
       <c r="S6" s="4"/>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="33"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="31"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="15"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="31"/>
       <c r="S7" s="4"/>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="32" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="34" t="s">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="19"/>
-      <c r="K8" s="18" t="s">
+      <c r="J8" s="16"/>
+      <c r="K8" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="24" t="s">
+      <c r="L8" s="16"/>
+      <c r="M8" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="20" t="s">
+      <c r="N8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="21"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="11"/>
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="2:19" ht="39" customHeight="1">
-      <c r="B9" s="25"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="23"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1045,28 +1045,28 @@
       <c r="L9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="M9" s="25"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="23"/>
+      <c r="M9" s="41"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="14"/>
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="2:19" ht="70.05" customHeight="1">
       <c r="B10" s="7">
         <v>1</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="34" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="38" t="s">
+      <c r="D10" s="35"/>
+      <c r="E10" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2" t="s">
         <v>29</v>
@@ -1075,30 +1075,32 @@
       <c r="L10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="38" t="s">
+      <c r="M10" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="N10" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="O10" s="39"/>
-      <c r="P10" s="39"/>
-      <c r="Q10" s="39"/>
-      <c r="R10" s="40"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="38"/>
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="2:19" ht="70.05" customHeight="1">
       <c r="B11" s="7">
         <v>2</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="38" t="s">
+      <c r="D11" s="35"/>
+      <c r="E11" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="40"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="38"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2" t="s">
         <v>28</v>
@@ -1107,30 +1109,32 @@
         <v>28</v>
       </c>
       <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="38" t="s">
+      <c r="M11" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="N11" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="39"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="39"/>
-      <c r="R11" s="40"/>
+      <c r="O11" s="37"/>
+      <c r="P11" s="37"/>
+      <c r="Q11" s="37"/>
+      <c r="R11" s="38"/>
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="2:19" ht="70.05" customHeight="1">
       <c r="B12" s="7">
         <v>3</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="38" t="s">
+      <c r="D12" s="35"/>
+      <c r="E12" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="38"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2" t="s">
         <v>28</v>
@@ -1139,30 +1143,32 @@
       <c r="L12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="38" t="s">
+      <c r="M12" s="2">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="N12" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="O12" s="39"/>
-      <c r="P12" s="39"/>
-      <c r="Q12" s="39"/>
-      <c r="R12" s="40"/>
+      <c r="O12" s="37"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="37"/>
+      <c r="R12" s="38"/>
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="2:19" ht="70.05" customHeight="1">
       <c r="B13" s="8">
         <v>4</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="38" t="s">
+      <c r="D13" s="35"/>
+      <c r="E13" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="38"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5" t="s">
         <v>28</v>
@@ -1171,30 +1177,32 @@
       <c r="L13" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="M13" s="5"/>
-      <c r="N13" s="38" t="s">
+      <c r="M13" s="5">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="N13" s="36" t="s">
         <v>25</v>
       </c>
-      <c r="O13" s="39"/>
-      <c r="P13" s="39"/>
-      <c r="Q13" s="39"/>
-      <c r="R13" s="40"/>
+      <c r="O13" s="37"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="37"/>
+      <c r="R13" s="38"/>
       <c r="S13" s="1"/>
     </row>
     <row r="14" spans="2:19" ht="70.05" customHeight="1">
       <c r="B14" s="7">
         <v>5</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="38" t="s">
+      <c r="D14" s="35"/>
+      <c r="E14" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="40"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="38"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2" t="s">
         <v>28</v>
@@ -1203,14 +1211,16 @@
       <c r="L14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="38" t="s">
+      <c r="M14" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="N14" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="O14" s="39"/>
-      <c r="P14" s="39"/>
-      <c r="Q14" s="39"/>
-      <c r="R14" s="40"/>
+      <c r="O14" s="37"/>
+      <c r="P14" s="37"/>
+      <c r="Q14" s="37"/>
+      <c r="R14" s="38"/>
       <c r="S14" s="1"/>
     </row>
     <row r="15" spans="2:19">
@@ -1495,6 +1505,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E12:H12"/>
+    <mergeCell ref="E13:H13"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="K8:L8"/>
+    <mergeCell ref="N8:R9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="C8:D9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
     <mergeCell ref="E8:H9"/>
     <mergeCell ref="I8:J8"/>
     <mergeCell ref="B2:R3"/>
@@ -1506,30 +1535,11 @@
     <mergeCell ref="L4:N5"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="R4:R5"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="N8:R9"/>
-    <mergeCell ref="M8:M9"/>
     <mergeCell ref="E6:I7"/>
     <mergeCell ref="J6:K7"/>
     <mergeCell ref="L6:R7"/>
     <mergeCell ref="B6:D7"/>
-    <mergeCell ref="C8:D9"/>
     <mergeCell ref="B8:B9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E12:H12"/>
-    <mergeCell ref="E13:H13"/>
-    <mergeCell ref="E14:H14"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
